--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Software Testing\My Projects\OpenCart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Software Testing\My Projects\TutorialsNinja\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Version History" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="101">
   <si>
     <t>Project Name</t>
   </si>
@@ -311,9 +311,6 @@
   </si>
   <si>
     <t>TCR002</t>
-  </si>
-  <si>
-    <t>Verify Registering an Account by providing only the mandatory fields</t>
   </si>
   <si>
     <t>1. Application (https://tutorialsninja.com/demo) is opened</t>
@@ -326,6 +323,22 @@
   </si>
   <si>
     <t>Tutorials Ninja</t>
+  </si>
+  <si>
+    <t>Verify 'Thank you for registering' email is sent to the registered email address as a confirmation for registering the account</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' Dropdown menu
+2. Click on 'Register' option 
+3. Enter new Account Details into all the Fields (First Name, Last Name, E-Mail, Telephone, Password, Password Confirm, Newsletter and  Privacy Policy Fields)
+4. Click on 'Continue' button
+5. Check the email address used for registering the account
+6. Click on the Login page link from the Email body</t>
+  </si>
+  <si>
+    <t>1. A confirmation email for registering the account should be sent to the registered email address 
+2. There should be a link to the login page in the Email body
+4. User should be taken to the Login page</t>
   </si>
 </sst>
 </file>
@@ -838,7 +851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F3:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -855,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="6:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1401,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1476,10 +1489,10 @@
         <v>90</v>
       </c>
       <c r="E2" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>96</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>97</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>91</v>
@@ -1493,7 +1506,7 @@
       <c r="L2" s="28"/>
       <c r="M2" s="28"/>
     </row>
-    <row r="3" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="202.8" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>94</v>
       </c>
@@ -1504,14 +1517,20 @@
         <v>89</v>
       </c>
       <c r="D3" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
+      <c r="F3" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>100</v>
+      </c>
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="105">
   <si>
     <t>Project Name</t>
   </si>
@@ -298,9 +298,6 @@
     <t>Register</t>
   </si>
   <si>
-    <t>Verify Registering an Account by providing all the fields</t>
-  </si>
-  <si>
     <t>Not Applicable</t>
   </si>
   <si>
@@ -316,29 +313,53 @@
     <t>1. Application (https://tutorialsninja.com/demo) is opened</t>
   </si>
   <si>
-    <t>1. Click on 'My Account' Dropdown menu
+    <t>Tutorials Ninja</t>
+  </si>
+  <si>
+    <t>TCR003</t>
+  </si>
+  <si>
+    <t>Verify that 'Thank you for registering' email is sent to the registered email address as a confirmation for registering the account</t>
+  </si>
+  <si>
+    <t>Verify that proper notification messages are displayed for the mandatory fields when no values are provided in the 'Register Account' page and submit</t>
+  </si>
+  <si>
+    <t>Verify registering an account by providing all the fields</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropdown menu
 2. Click on 'Register' option 
-3. Enter new Account Details into all the Fields (First Name, Last Name, E-Mail, Telephone, Password, Password Confirm, Newsletter and  Privacy Policy Fields)
+3. Enter new account details into all the fields (First Name, Last Name, E-Mail, Telephone, Password, Password Confirm, Newsletter and  Privacy Policy fields)
 4. Click on 'Continue' button</t>
   </si>
   <si>
-    <t>Tutorials Ninja</t>
-  </si>
-  <si>
-    <t>Verify 'Thank you for registering' email is sent to the registered email address as a confirmation for registering the account</t>
-  </si>
-  <si>
-    <t>1. Click on 'My Account' Dropdown menu
+    <t>1. Click on 'My Account' dropdown menu
 2. Click on 'Register' option 
-3. Enter new Account Details into all the Fields (First Name, Last Name, E-Mail, Telephone, Password, Password Confirm, Newsletter and  Privacy Policy Fields)
+3. Enter new account details into all the fields (First Name, Last Name, E-Mail, Telephone, Password, Password Confirm, Newsletter and  Privacy Policy fields)
 4. Click on 'Continue' button
 5. Check the email address used for registering the account
-6. Click on the Login page link from the Email body</t>
+6. Click on the login page link from the email body</t>
   </si>
   <si>
     <t>1. A confirmation email for registering the account should be sent to the registered email address 
 2. There should be a link to the login page in the Email body
-4. User should be taken to the Login page</t>
+4. User should be taken to the login page</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropdown menu
+2. Click on 'Register' option 
+3. Don't enter anything into the fields
+4. Click on 'Continue' button</t>
+  </si>
+  <si>
+    <t>1. The below warning messages should be displayed for the respective fields:
+For 'First Name' field, the warning message 'First Name must be between 1 and 32 characters!' should be displayed
+For 'Last Name' field, the warning message 'Last Name must be between 1 and 32 characters!' should be displayed
+For 'E-Mail' field, the warning message 'E-Mail Address does not appear to be valid!' should be displayed
+For 'Telephone' field, the warning message 'Telephone must be between 3 and 32 characters!' should be displayed
+For 'Password' field, the warning message 'Password must be between 4 and 20 characters!' should be displayed
+For 'Privacy Policy' field, the warning message 'Warning: You must agree to the Privacy Policy!' should be displayed on the top</t>
   </si>
 </sst>
 </file>
@@ -868,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="6:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1414,8 +1435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1457,7 +1478,7 @@
         <v>72</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I1" s="25" t="s">
         <v>74</v>
@@ -1475,7 +1496,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="26" customFormat="1" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="26" customFormat="1" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>88</v>
       </c>
@@ -1486,19 +1507,19 @@
         <v>89</v>
       </c>
       <c r="D2" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>91</v>
-      </c>
       <c r="H2" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
@@ -1506,9 +1527,9 @@
       <c r="L2" s="28"/>
       <c r="M2" s="28"/>
     </row>
-    <row r="3" spans="1:13" ht="202.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>10</v>
@@ -1517,19 +1538,19 @@
         <v>89</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
@@ -1537,15 +1558,31 @@
       <c r="L3" s="22"/>
       <c r="M3" s="22"/>
     </row>
-    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="22"/>
+    <row r="4" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>104</v>
+      </c>
       <c r="I4" s="22"/>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Software Testing\My Projects\OpenCart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Software Testing\My Projects\TutorialsNinja\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Version History" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="105">
   <si>
     <t>Project Name</t>
   </si>
@@ -298,9 +298,6 @@
     <t>Register</t>
   </si>
   <si>
-    <t>Verify Registering an Account by providing all the fields</t>
-  </si>
-  <si>
     <t>Not Applicable</t>
   </si>
   <si>
@@ -313,19 +310,56 @@
     <t>TCR002</t>
   </si>
   <si>
-    <t>Verify Registering an Account by providing only the mandatory fields</t>
-  </si>
-  <si>
     <t>1. Application (https://tutorialsninja.com/demo) is opened</t>
   </si>
   <si>
-    <t>1. Click on 'My Account' Dropdown menu
+    <t>Tutorials Ninja</t>
+  </si>
+  <si>
+    <t>TCR003</t>
+  </si>
+  <si>
+    <t>Verify that 'Thank you for registering' email is sent to the registered email address as a confirmation for registering the account</t>
+  </si>
+  <si>
+    <t>Verify that proper notification messages are displayed for the mandatory fields when no values are provided in the 'Register Account' page and submit</t>
+  </si>
+  <si>
+    <t>Verify registering an account by providing all the fields</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropdown menu
 2. Click on 'Register' option 
-3. Enter new Account Details into all the Fields (First Name, Last Name, E-Mail, Telephone, Password, Password Confirm, Newsletter and  Privacy Policy Fields)
+3. Enter new account details into all the fields (First Name, Last Name, E-Mail, Telephone, Password, Password Confirm, Newsletter and  Privacy Policy fields)
 4. Click on 'Continue' button</t>
   </si>
   <si>
-    <t>Tutorials Ninja</t>
+    <t>1. Click on 'My Account' dropdown menu
+2. Click on 'Register' option 
+3. Enter new account details into all the fields (First Name, Last Name, E-Mail, Telephone, Password, Password Confirm, Newsletter and  Privacy Policy fields)
+4. Click on 'Continue' button
+5. Check the email address used for registering the account
+6. Click on the login page link from the email body</t>
+  </si>
+  <si>
+    <t>1. A confirmation email for registering the account should be sent to the registered email address 
+2. There should be a link to the login page in the Email body
+4. User should be taken to the login page</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropdown menu
+2. Click on 'Register' option 
+3. Don't enter anything into the fields
+4. Click on 'Continue' button</t>
+  </si>
+  <si>
+    <t>1. The below warning messages should be displayed for the respective fields:
+For 'First Name' field, the warning message 'First Name must be between 1 and 32 characters!' should be displayed
+For 'Last Name' field, the warning message 'Last Name must be between 1 and 32 characters!' should be displayed
+For 'E-Mail' field, the warning message 'E-Mail Address does not appear to be valid!' should be displayed
+For 'Telephone' field, the warning message 'Telephone must be between 3 and 32 characters!' should be displayed
+For 'Password' field, the warning message 'Password must be between 4 and 20 characters!' should be displayed
+For 'Privacy Policy' field, the warning message 'Warning: You must agree to the Privacy Policy!' should be displayed on the top</t>
   </si>
 </sst>
 </file>
@@ -838,7 +872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F3:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -855,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="6:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1401,8 +1435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1444,7 +1478,7 @@
         <v>72</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I1" s="25" t="s">
         <v>74</v>
@@ -1462,7 +1496,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="26" customFormat="1" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="26" customFormat="1" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>88</v>
       </c>
@@ -1473,19 +1507,19 @@
         <v>89</v>
       </c>
       <c r="D2" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>91</v>
-      </c>
       <c r="H2" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
@@ -1493,9 +1527,9 @@
       <c r="L2" s="28"/>
       <c r="M2" s="28"/>
     </row>
-    <row r="3" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>10</v>
@@ -1504,29 +1538,51 @@
         <v>89</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
+        <v>94</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>102</v>
+      </c>
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
       <c r="L3" s="22"/>
       <c r="M3" s="22"/>
     </row>
-    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="22"/>
+    <row r="4" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>104</v>
+      </c>
       <c r="I4" s="22"/>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="113">
   <si>
     <t>Project Name</t>
   </si>
@@ -304,9 +304,6 @@
     <t>Expected Result</t>
   </si>
   <si>
-    <t>1. User should be logged in,  taken to 'Account Succcess' page and proper details should be displayed on the page</t>
-  </si>
-  <si>
     <t>TCR002</t>
   </si>
   <si>
@@ -326,31 +323,6 @@
   </si>
   <si>
     <t>Verify registering an account by providing all the fields</t>
-  </si>
-  <si>
-    <t>1. Click on 'My Account' dropdown menu
-2. Click on 'Register' option 
-3. Enter new account details into all the fields (First Name, Last Name, E-Mail, Telephone, Password, Password Confirm, Newsletter and  Privacy Policy fields)
-4. Click on 'Continue' button</t>
-  </si>
-  <si>
-    <t>1. Click on 'My Account' dropdown menu
-2. Click on 'Register' option 
-3. Enter new account details into all the fields (First Name, Last Name, E-Mail, Telephone, Password, Password Confirm, Newsletter and  Privacy Policy fields)
-4. Click on 'Continue' button
-5. Check the email address used for registering the account
-6. Click on the login page link from the email body</t>
-  </si>
-  <si>
-    <t>1. A confirmation email for registering the account should be sent to the registered email address 
-2. There should be a link to the login page in the Email body
-4. User should be taken to the login page</t>
-  </si>
-  <si>
-    <t>1. Click on 'My Account' dropdown menu
-2. Click on 'Register' option 
-3. Don't enter anything into the fields
-4. Click on 'Continue' button</t>
   </si>
   <si>
     <t>1. The below warning messages should be displayed for the respective fields:
@@ -360,6 +332,76 @@
 For 'Telephone' field, the warning message 'Telephone must be between 3 and 32 characters!' should be displayed
 For 'Password' field, the warning message 'Password must be between 4 and 20 characters!' should be displayed
 For 'Privacy Policy' field, the warning message 'Warning: You must agree to the Privacy Policy!' should be displayed on the top</t>
+  </si>
+  <si>
+    <t>TCR004</t>
+  </si>
+  <si>
+    <t>Verify registering an account when 'Yes' option is selected for Newsletter field</t>
+  </si>
+  <si>
+    <t>1. User should be logged in,  taken to 'Account Succcess' page and proper details should be displayed on the page
+2. User should be taken to 'Account' page 
+3. 'Yes' option should be displayed as selected by default in the Newsletter page</t>
+  </si>
+  <si>
+    <t>1. User should be logged in,  taken to 'Account Succcess' page and proper details should be displayed on the page
+2. User should be taken to 'Account' page and a confirmation email should be sent to the registered email address</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropdown menu
+2. Click on 'Register' option 
+3. Enter new account details into all the fields (First Name, Last Name, E-Mail, Telephone, Password, Password Confirm, Newsletter and  Privacy Policy fields)
+4. Click on 'Continue' button (ER-1)
+5. Click on 'Continue' button that is displayed in the 'Account Success' page (ER-2)</t>
+  </si>
+  <si>
+    <t>1. A confirmation email for registering the account should be sent to the registered email address 
+2. There should be a link to the login page in the email body
+3. User should be taken to the login page</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropdown menu
+2. Click on 'Register' option 
+3. Enter new account details into all the fields (First Name, Last Name, E-Mail, Telephone, Password, Password Confirm, Newsletter and  Privacy Policy fields)
+4. Click on 'Continue' button
+5. Check the email address used for registering the account (ER-1, ER-2)
+6. Click on the login page link from the email body (ER-3)</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropdown menu
+2. Click on 'Register' option 
+3. Don't enter anything into the fields
+4. Click on 'Continue' button (ER-1)</t>
+  </si>
+  <si>
+    <t>TCR005</t>
+  </si>
+  <si>
+    <t>Verify registering an account when 'No' option is selected for Newsletter field</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropdown menu
+2. Click on 'Register' option 
+3. Enter new account details into all the fields (First Name, Last Name, E-Mail,Telephone, Password, Password Confirm and  Privacy Policy fields)
+4.Click on 'Yes' radio option for Newsletter 
+5. Click on 'Continue' button (ER-1)
+6. Click on 'Continue' button that is displayed in the 'Account Success' page (ER-2)
+7. Click on 'Subscribe/unsubscribe to newsletter' option (ER-3)</t>
+  </si>
+  <si>
+    <t>1. User should be logged in,  taken to 'Account Succcess' page and proper details should be displayed on the page
+2. User should be taken to 'Account' page 
+3. 'No' option should be displayed as selected by default in the Newsletter page</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropdown menu
+2. Click on 'Register' option 
+3. Enter new account details into all the fields (First Name, Last Name, E-Mail,Telephone, Password, Password Confirm and  Privacy Policy fields)
+4.Click on 'No' radio option for Newsletter 
+5. Click on 'Continue' button (ER-1)
+6. Click on 'Continue' button that is displayed in the 'Account Success' page (ER-2)
+7. Click on 'Subscribe/unsubscribe to newsletter' option (ER-3)</t>
   </si>
 </sst>
 </file>
@@ -889,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="6:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1435,8 +1477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1496,7 +1538,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="26" customFormat="1" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="26" customFormat="1" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>88</v>
       </c>
@@ -1507,19 +1549,19 @@
         <v>89</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>90</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
@@ -1529,7 +1571,7 @@
     </row>
     <row r="3" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>10</v>
@@ -1538,19 +1580,19 @@
         <v>89</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G3" s="30" t="s">
         <v>90</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
@@ -1560,7 +1602,7 @@
     </row>
     <row r="4" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>10</v>
@@ -1569,19 +1611,19 @@
         <v>89</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G4" s="30" t="s">
         <v>90</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I4" s="22"/>
       <c r="J4" s="22"/>
@@ -1589,30 +1631,62 @@
       <c r="L4" s="22"/>
       <c r="M4" s="22"/>
     </row>
-    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22"/>
+    <row r="5" spans="1:13" ht="218.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>102</v>
+      </c>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
       <c r="M5" s="22"/>
     </row>
-    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
+    <row r="6" spans="1:13" ht="218.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>111</v>
+      </c>
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="117">
   <si>
     <t>Project Name</t>
   </si>
@@ -402,6 +402,23 @@
 5. Click on 'Continue' button (ER-1)
 6. Click on 'Continue' button that is displayed in the 'Account Success' page (ER-2)
 7. Click on 'Subscribe/unsubscribe to newsletter' option (ER-3)</t>
+  </si>
+  <si>
+    <t>TCR006</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropdown menu
+2. Click on 'Register' option 
+3. Enter new account details into all the fields (First Name, Last Name, E-Mail, Telephone, Password, Password Confirm, Newsletter and  Privacy Policy fields)
+4. Enter any password say '12345' into the 'Password' field
+5. Enter any different password say 'abcde' into the 'Passsword Confirm' field
+6. Click on 'Continue' button (ER-1)</t>
+  </si>
+  <si>
+    <t>1.Account should not be created, instead a warning message - 'Password confirmation does not match password!' should be displayed under 'Password Confirm' field</t>
+  </si>
+  <si>
+    <t>Verify registering an account by entering different passwords into 'Password' and 'Password Confirm' fields</t>
   </si>
 </sst>
 </file>
@@ -1477,8 +1494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1693,15 +1710,31 @@
       <c r="L6" s="22"/>
       <c r="M6" s="22"/>
     </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
+    <row r="7" spans="1:13" ht="202.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>115</v>
+      </c>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="127">
   <si>
     <t>Project Name</t>
   </si>
@@ -419,6 +419,52 @@
   </si>
   <si>
     <t>Verify registering an account by entering different passwords into 'Password' and 'Password Confirm' fields</t>
+  </si>
+  <si>
+    <t>TCR007</t>
+  </si>
+  <si>
+    <t>Verify registering an account by providing an invalid email address into the 'E-Mail' field</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropdown menu
+2. Click on 'Register' option 
+3. Enter new account details into all the fields (First Name, Last Name, E-Mail, Telephone, Password, Password Confirm, Newsletter and  Privacy Policy fields)
+4. Enter invalid email address into the 'E-Mail' Field - &lt;Refer Test Data&gt;
+5. Click on 'Continue' button (ER-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try all below invalid email address formats:
+1) tauhid
+2) tauhid@
+3) tauhid@gmail
+4) tauhid.com
+</t>
+  </si>
+  <si>
+    <t>1. Account should not be created, instead a proper field level warning message or page level warning message to provide valid email address should be displayed</t>
+  </si>
+  <si>
+    <t>TCR008</t>
+  </si>
+  <si>
+    <t>Verify registering an account by providing an invalid phone number into the 'Telephone' field</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropdown menu
+2. Click on 'Register' option 
+3. Enter new account details into all the fields (First Name, Last Name, E-Mail, Telephone, Password, Password Confirm, Newsletter and  Privacy Policy fields)
+4. Enter invalid phone number into the 'Telephone' Field - &lt;Refer Test Data&gt;
+5. Click on 'Continue' button (ER-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try all below invalid phone number formats:
+1) 01
+2) abcd
+</t>
+  </si>
+  <si>
+    <t>1. Account should not be created, instead a proper field level warning message or page level warning message to provide valid phone number should be displayed</t>
   </si>
 </sst>
 </file>
@@ -616,9 +662,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -648,6 +691,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1494,19 +1540,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="33" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="33" customWidth="1"/>
-    <col min="4" max="4" width="40.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="32" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" customWidth="1"/>
     <col min="6" max="6" width="38.21875" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
     <col min="8" max="8" width="33.109375" customWidth="1"/>
     <col min="9" max="9" width="16.88671875" customWidth="1"/>
     <col min="10" max="11" width="9.88671875" customWidth="1"/>
@@ -1514,101 +1560,101 @@
     <col min="13" max="13" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="26" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:13" s="25" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="24" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="26" customFormat="1" ht="171.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:13" s="25" customFormat="1" ht="171.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
     </row>
     <row r="3" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="28" t="s">
         <v>105</v>
       </c>
       <c r="I3" s="22"/>
@@ -1618,28 +1664,28 @@
       <c r="M3" s="22"/>
     </row>
     <row r="4" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>89</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="28" t="s">
         <v>99</v>
       </c>
       <c r="I4" s="22"/>
@@ -1649,28 +1695,28 @@
       <c r="M4" s="22"/>
     </row>
     <row r="5" spans="1:13" ht="218.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>89</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="28" t="s">
         <v>102</v>
       </c>
       <c r="I5" s="22"/>
@@ -1680,28 +1726,28 @@
       <c r="M5" s="22"/>
     </row>
     <row r="6" spans="1:13" ht="218.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>89</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="28" t="s">
         <v>111</v>
       </c>
       <c r="I6" s="22"/>
@@ -1711,28 +1757,28 @@
       <c r="M6" s="22"/>
     </row>
     <row r="7" spans="1:13" ht="202.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="26" t="s">
         <v>89</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="28" t="s">
         <v>115</v>
       </c>
       <c r="I7" s="22"/>
@@ -1741,30 +1787,62 @@
       <c r="L7" s="22"/>
       <c r="M7" s="22"/>
     </row>
-    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
+    <row r="8" spans="1:13" ht="156" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>121</v>
+      </c>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
     </row>
-    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="22"/>
+    <row r="9" spans="1:13" ht="156" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>126</v>
+      </c>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
@@ -1773,8 +1851,8 @@
     </row>
     <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="22"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="24"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
       <c r="F10" s="22"/>
@@ -1788,8 +1866,8 @@
     </row>
     <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="22"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="24"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
       <c r="F11" s="22"/>
@@ -1803,8 +1881,8 @@
     </row>
     <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="22"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="24"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="19"/>
       <c r="E12" s="20"/>
       <c r="F12" s="22"/>
@@ -1818,8 +1896,8 @@
     </row>
     <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="22"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="24"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
       <c r="F13" s="22"/>
@@ -1833,8 +1911,8 @@
     </row>
     <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="22"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="24"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="19"/>
       <c r="E14" s="20"/>
       <c r="F14" s="22"/>
@@ -1848,8 +1926,8 @@
     </row>
     <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="22"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="24"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="19"/>
       <c r="E15" s="20"/>
       <c r="F15" s="22"/>
@@ -1863,8 +1941,8 @@
     </row>
     <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="22"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="19"/>
       <c r="E16" s="20"/>
       <c r="F16" s="22"/>
@@ -1878,8 +1956,8 @@
     </row>
     <row r="17" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="22"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="24"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="19"/>
       <c r="E17" s="20"/>
       <c r="F17" s="22"/>
@@ -1893,8 +1971,8 @@
     </row>
     <row r="18" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="22"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="24"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="19"/>
       <c r="E18" s="20"/>
       <c r="F18" s="22"/>
@@ -1908,8 +1986,8 @@
     </row>
     <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="22"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="24"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="19"/>
       <c r="E19" s="20"/>
       <c r="F19" s="22"/>
@@ -1923,8 +2001,8 @@
     </row>
     <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="22"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="24"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="19"/>
       <c r="E20" s="20"/>
       <c r="F20" s="22"/>
@@ -1938,8 +2016,8 @@
     </row>
     <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="22"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="24"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="19"/>
       <c r="E21" s="20"/>
       <c r="F21" s="22"/>
@@ -1953,8 +2031,8 @@
     </row>
     <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="22"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="24"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="23"/>
       <c r="D22" s="19"/>
       <c r="E22" s="20"/>
       <c r="F22" s="22"/>
@@ -1968,8 +2046,8 @@
     </row>
     <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="22"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="24"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="19"/>
       <c r="E23" s="20"/>
       <c r="F23" s="22"/>
@@ -1983,8 +2061,8 @@
     </row>
     <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="22"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="24"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="19"/>
       <c r="E24" s="20"/>
       <c r="F24" s="22"/>
@@ -1998,8 +2076,8 @@
     </row>
     <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="22"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="24"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="23"/>
       <c r="D25" s="19"/>
       <c r="E25" s="20"/>
       <c r="F25" s="22"/>
@@ -2013,8 +2091,8 @@
     </row>
     <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="22"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="24"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="23"/>
       <c r="D26" s="19"/>
       <c r="E26" s="20"/>
       <c r="F26" s="22"/>
@@ -2028,8 +2106,8 @@
     </row>
     <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="22"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="24"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="19"/>
       <c r="E27" s="20"/>
       <c r="F27" s="22"/>
@@ -2043,8 +2121,8 @@
     </row>
     <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="22"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="24"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="19"/>
       <c r="E28" s="20"/>
       <c r="F28" s="22"/>
@@ -2058,8 +2136,8 @@
     </row>
     <row r="29" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="22"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="24"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="23"/>
       <c r="D29" s="19"/>
       <c r="E29" s="20"/>
       <c r="F29" s="22"/>
@@ -2073,8 +2151,8 @@
     </row>
     <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="22"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="24"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="23"/>
       <c r="D30" s="19"/>
       <c r="E30" s="20"/>
       <c r="F30" s="22"/>
@@ -2088,8 +2166,8 @@
     </row>
     <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="22"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="24"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="19"/>
       <c r="E31" s="20"/>
       <c r="F31" s="22"/>
@@ -2103,8 +2181,8 @@
     </row>
     <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="22"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="24"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="23"/>
       <c r="D32" s="19"/>
       <c r="E32" s="20"/>
       <c r="F32" s="22"/>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="136">
   <si>
     <t>Project Name</t>
   </si>
@@ -465,6 +465,44 @@
   </si>
   <si>
     <t>1. Account should not be created, instead a proper field level warning message or page level warning message to provide valid phone number should be displayed</t>
+  </si>
+  <si>
+    <t>TCR009</t>
+  </si>
+  <si>
+    <t>Verify whether the password fields in the register account page are following Password Complexity Standards</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropdown menu
+2. Click on 'Register' option 
+3. Enter new account details into all the fields (First Name, Last Name, E-Mail, Telephone, Password, Password Confirm, Newsletter and  Privacy Policy fields)
+4. Check entering simple passwords (Not following Password Complexity Standars' i.e. Size of password as 8, password should contain atleast one number, symbol, lower case letter and upper case letters) - &lt;Refer Test Data&gt;
+5. Click on 'Continue' button (ER-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try all below passwords:
+1) 12345
+2) abcde
+</t>
+  </si>
+  <si>
+    <t>1. Warning message should be displayed for following Password Complexity Standards</t>
+  </si>
+  <si>
+    <t>TCR010</t>
+  </si>
+  <si>
+    <t>Verify registering the account without selecting the 'Privacy Policy' checkbox option</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropdown menu
+2. Click on 'Register' option 
+3. Enter new account details into all the fields (First Name, Last Name, E-Mail, Telephone, Password, Password Confirm and Newsletter fields)
+4. Don't select the 'Privacy Policy' checkbox option
+4. Click on 'Continue' button (ER-1)</t>
+  </si>
+  <si>
+    <t>1. Warning message - 'Warning: You must agree to the Privacy Policy!' should be displayed</t>
   </si>
 </sst>
 </file>
@@ -596,7 +634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -694,6 +732,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1540,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1849,30 +1890,62 @@
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
     </row>
-    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
+    <row r="10" spans="1:13" ht="218.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>131</v>
+      </c>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
     </row>
-    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
+    <row r="11" spans="1:13" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>135</v>
+      </c>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="132">
   <si>
     <t>Project Name</t>
   </si>
@@ -465,6 +465,28 @@
   </si>
   <si>
     <t>1. Account should not be created, instead a proper field level warning message or page level warning message to provide valid phone number should be displayed</t>
+  </si>
+  <si>
+    <t>TCR009</t>
+  </si>
+  <si>
+    <t>Verify whether the password fields in the register account page are following Password Complexity Standards</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropdown menu
+2. Click on 'Register' option 
+3. Enter new account details into all the fields (First Name, Last Name, E-Mail, Telephone, Password, Password Confirm, Newsletter and  Privacy Policy fields)
+4. Check entering simple passwords (Not following Password Complexity Standars' i.e. Size of password as 8, password should contain atleast one number, symbol, lower case letter and upper case letters) - &lt;Refer Test Data&gt;
+5. Click on 'Continue' button (ER-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try all below passwords:
+1) 12345
+2) abcde
+</t>
+  </si>
+  <si>
+    <t>1. Warning message should be displayed for following Password Complexity Standards</t>
   </si>
 </sst>
 </file>
@@ -1540,8 +1562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1849,15 +1871,31 @@
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
     </row>
-    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
+    <row r="10" spans="1:13" ht="218.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>131</v>
+      </c>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -1582,7 +1582,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="144">
   <si>
     <t>Project Name</t>
   </si>
@@ -470,9 +470,6 @@
     <t>TCR009</t>
   </si>
   <si>
-    <t>Verify whether the password fields in the register account page are following Password Complexity Standards</t>
-  </si>
-  <si>
     <t>1. Click on 'My Account' dropdown menu
 2. Click on 'Register' option 
 3. Enter new account details into all the fields (First Name, Last Name, E-Mail, Telephone, Password, Password Confirm, Newsletter and  Privacy Policy fields)
@@ -495,14 +492,48 @@
     <t>Verify registering the account without selecting the 'Privacy Policy' checkbox option</t>
   </si>
   <si>
+    <t>1. Warning message - 'Warning: You must agree to the Privacy Policy!' should be displayed</t>
+  </si>
+  <si>
+    <t>TCR011</t>
+  </si>
+  <si>
+    <t>Verify registring an Account, by filling 'Password' field and not filling 'Password Confirm' field</t>
+  </si>
+  <si>
+    <t>1. Warning message - 'Password confirmation does not match password!' should be displayed under 'Password Confirm' field</t>
+  </si>
+  <si>
+    <t>TCR012</t>
+  </si>
+  <si>
+    <t>Verify whether the password fields in the Register Account page are following Password Complexity Standards</t>
+  </si>
+  <si>
+    <t>Verify whether the mandatory fields in the Register Account page are accepting only spaces</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropdown menu
+2. Click on 'Register' option 
+3. Enter only spaces into the mandatory fields (First Name, Last Name, E-Mail, Telephone, Password and Password Confirm fields)
+4. Click on 'Continue' button (ER-1)</t>
+  </si>
+  <si>
     <t>1. Click on 'My Account' dropdown menu
 2. Click on 'Register' option 
 3. Enter new account details into all the fields (First Name, Last Name, E-Mail, Telephone, Password, Password Confirm and Newsletter fields)
 4. Don't select the 'Privacy Policy' checkbox option
-4. Click on 'Continue' button (ER-1)</t>
-  </si>
-  <si>
-    <t>1. Warning message - 'Warning: You must agree to the Privacy Policy!' should be displayed</t>
+5. Click on 'Continue' button (ER-1)</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropdown menu
+2. Click on 'Register' option 
+3. Enter new account details into all the fields (First Name, Last Name, E-Mail, Telephone, Password, Newsletter and Privacy Policy fields)
+4. Don't enter value into 'Password Confirm' field
+5. Click on 'Continue' button (ER-1)</t>
+  </si>
+  <si>
+    <t>1. Warning messages should be displayed for these Mandatory fields</t>
   </si>
 </sst>
 </file>
@@ -1581,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1901,19 +1932,19 @@
         <v>89</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E10" s="28" t="s">
         <v>93</v>
       </c>
       <c r="F10" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="H10" s="28" t="s">
         <v>130</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>131</v>
       </c>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
@@ -1923,7 +1954,7 @@
     </row>
     <row r="11" spans="1:13" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>10</v>
@@ -1932,19 +1963,19 @@
         <v>89</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E11" s="28" t="s">
         <v>93</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G11" s="34" t="s">
         <v>90</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
@@ -1952,30 +1983,62 @@
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
     </row>
-    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
+    <row r="12" spans="1:13" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>136</v>
+      </c>
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
       <c r="M12" s="22"/>
     </row>
-    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22"/>
+    <row r="13" spans="1:13" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>143</v>
+      </c>
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="177">
   <si>
     <t>Project Name</t>
   </si>
@@ -407,14 +407,6 @@
     <t>TCR006</t>
   </si>
   <si>
-    <t>1. Click on 'My Account' dropdown menu
-2. Click on 'Register' option 
-3. Enter new account details into all the fields (First Name, Last Name, E-Mail, Telephone, Password, Password Confirm, Newsletter and  Privacy Policy fields)
-4. Enter any password say '12345' into the 'Password' field
-5. Enter any different password say 'abcde' into the 'Passsword Confirm' field
-6. Click on 'Continue' button (ER-1)</t>
-  </si>
-  <si>
     <t>1.Account should not be created, instead a warning message - 'Password confirmation does not match password!' should be displayed under 'Password Confirm' field</t>
   </si>
   <si>
@@ -425,13 +417,6 @@
   </si>
   <si>
     <t>Verify registering an account by providing an invalid email address into the 'E-Mail' field</t>
-  </si>
-  <si>
-    <t>1. Click on 'My Account' dropdown menu
-2. Click on 'Register' option 
-3. Enter new account details into all the fields (First Name, Last Name, E-Mail, Telephone, Password, Password Confirm, Newsletter and  Privacy Policy fields)
-4. Enter invalid email address into the 'E-Mail' Field - &lt;Refer Test Data&gt;
-5. Click on 'Continue' button (ER-1)</t>
   </si>
   <si>
     <t xml:space="preserve">Try all below invalid email address formats:
@@ -451,13 +436,6 @@
     <t>Verify registering an account by providing an invalid phone number into the 'Telephone' field</t>
   </si>
   <si>
-    <t>1. Click on 'My Account' dropdown menu
-2. Click on 'Register' option 
-3. Enter new account details into all the fields (First Name, Last Name, E-Mail, Telephone, Password, Password Confirm, Newsletter and  Privacy Policy fields)
-4. Enter invalid phone number into the 'Telephone' Field - &lt;Refer Test Data&gt;
-5. Click on 'Continue' button (ER-1)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Try all below invalid phone number formats:
 1) 01
 2) abcd
@@ -468,13 +446,6 @@
   </si>
   <si>
     <t>TCR009</t>
-  </si>
-  <si>
-    <t>1. Click on 'My Account' dropdown menu
-2. Click on 'Register' option 
-3. Enter new account details into all the fields (First Name, Last Name, E-Mail, Telephone, Password, Password Confirm, Newsletter and  Privacy Policy fields)
-4. Check entering simple passwords (Not following Password Complexity Standars' i.e. Size of password as 8, password should contain atleast one number, symbol, lower case letter and upper case letters) - &lt;Refer Test Data&gt;
-5. Click on 'Continue' button (ER-1)</t>
   </si>
   <si>
     <t xml:space="preserve">Try all below passwords:
@@ -534,6 +505,156 @@
   </si>
   <si>
     <t>1. Warning messages should be displayed for these Mandatory fields</t>
+  </si>
+  <si>
+    <t>TCR013</t>
+  </si>
+  <si>
+    <t>Verify whether the leading and trailing spaces entered into the Register Account fields are trimmed</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropdown menu
+2. Click on 'Register' option 
+3. Enter new Account Details into all the Fields (First Name, Last Name, E-Mail, Telephone, Password, Password Confirm, Newsletter and  Privacy Policy Fields) - by adding leading and trailing spaces to the applicable fields (First Name, Last Name, E-Mail, Telephone, Password and Password Confirm)
+4. Click on 'Continue' button (ER-1)</t>
+  </si>
+  <si>
+    <t>1. The leading and trailing spaces entered into these fields should automatically get trimmed on successful account creation</t>
+  </si>
+  <si>
+    <t>TCR014</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropdown menu
+2. Click on 'Register' option 
+3. Enter some Password text into the 'Password' and 'Password Confirm' fields (ER-1))</t>
+  </si>
+  <si>
+    <t>TCR015</t>
+  </si>
+  <si>
+    <t>Verify whether the 'Privacy Policy' checkbox option is not selected by default</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropdown menu
+2. Click on 'Register' option 
+3. View the 'Privacy Policy' checkbox option (ER-1)</t>
+  </si>
+  <si>
+    <t>1. 'Privacy Policy' checkbox option should not be selected by default</t>
+  </si>
+  <si>
+    <t>1. Password text entered into 'Password' and 'Password Confirm' fields should be toggled to hide its visibilty (It should be hidden by displaying * or . Symbols)</t>
+  </si>
+  <si>
+    <t>TCR016</t>
+  </si>
+  <si>
+    <t>Verify that all the mandatory fields in the Register Account page are marked with red color * symbol</t>
+  </si>
+  <si>
+    <t>1. All the specified Fields in the Test Steps should be marked with red color * symbol</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropdown menu
+2. Click on 'Register' option 
+3. Check the Fields - First Name, Last Name, E-Mail, Telephone, Password, Password Confirm and Privacy Policy (ER-1)</t>
+  </si>
+  <si>
+    <t>TCR017</t>
+  </si>
+  <si>
+    <t>1. Proper Placeholder texts should be displayed in these fields</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropdown menu
+2. Click on 'Register' option 
+3. View the First Name, Last Name, E-Mail, Telephone, Password and Password Confirm fields for Placeholders (ER-1)</t>
+  </si>
+  <si>
+    <t>Verify that all the fields in the Register Account page have the proper placeholders</t>
+  </si>
+  <si>
+    <t>TCR018</t>
+  </si>
+  <si>
+    <t>Verify that the password text entered into the 'Password' and 'Password Confirm' field of 'Register Account' functionality is toggled to hide its visibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify navigating to other pages using the options or links provided on the 'Register Account' page </t>
+  </si>
+  <si>
+    <t>1. User should be navigated to the respective pages without any problems</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropdown menu
+2. Click on 'Register' option 
+3. Try clicking on 'login page' link, 'Privacy Policy' link, 'Right Column' options, Menu options, Header and Footer options and any other options (ER-1)</t>
+  </si>
+  <si>
+    <t>TCR019</t>
+  </si>
+  <si>
+    <t>Verify registering an account by providing the existing email address</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropdown menu
+2. Click on 'Register' option 
+3. Enter new account details into all the fields (First Name, Last Name, E-Mail, Telephone, Newsletter and  Privacy Policy fields)
+4. Enter any password say '12345' into the 'Password' field
+5. Enter any different password say 'abcde' into the 'Passsword Confirm' field
+6. Click on 'Continue' button (ER-1)</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropdown menu
+2. Click on 'Register' option 
+3. Enter new account details into all the fields (First Name, Last Name, E-Mail, Telephone, Newsletter and  Privacy Policy fields)
+4. Check entering simple passwords (Not following Password Complexity Standars' i.e. Size of password as 8, password should contain atleast one number, symbol, lower case letter and upper case letters) - &lt;Refer Test Data&gt;
+5. Click on 'Continue' button (ER-1)</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropdown menu
+2. Click on 'Register' option 
+3. Enter new account details into all the fields (First Name, Last Name, Telephone, Password, Password Confirm, Newsletter and  Privacy Policy fields)
+4.Enter existing email address into the 'E-Mail' field - &lt;Refer Test Data&gt;
+5. Click on 'Continue' button (ER-1)</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropdown menu
+2. Click on 'Register' option 
+3. Enter new account details into all the fields (First Name, Last Name, E-Mail, Password, Password Confirm, Newsletter and  Privacy Policy fields)
+4. Enter invalid phone number into the 'Telephone' field - &lt;Refer Test Data&gt;
+5. Click on 'Continue' button (ER-1)</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropdown menu
+2. Click on 'Register' option 
+3. Enter new account details into all the fields (First Name, Last Name, Telephone, Password, Password Confirm, Newsletter and  Privacy Policy fields)
+4. Enter invalid email address into the 'E-Mail' field - &lt;Refer Test Data&gt;
+5. Click on 'Continue' button (ER-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try below email address:
+tauhid.demo@gmail.com
+</t>
+  </si>
+  <si>
+    <t>1. Account should not be created again, instead the warning messsage -  'Warning: E-Mail Address is already registered!' should be displayed</t>
+  </si>
+  <si>
+    <t>TCR020</t>
+  </si>
+  <si>
+    <t>Verify Registering an Account by using the Keyboard keys</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' dropdown menu
+2. Click on 'Register' option 
+3. Enter new account details into all the fields (First Name, Last Name, E-Mail, Telephone, Password, Password Confirm, Newsletter and  Privacy Policy fields) by using Keyboard keys (Tab, Spacebar and Enter)
+4. Click on 'Continue' button (ER-1)</t>
+  </si>
+  <si>
+    <t>1. User should be logged in,  taken to 'Account Succcess' page and proper details should be displayed on the page</t>
   </si>
 </sst>
 </file>
@@ -665,7 +786,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -731,9 +852,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -766,6 +884,22 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1110,7 +1244,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1151,7 +1287,9 @@
       <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="8">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -1612,19 +1750,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="32" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="31" customWidth="1"/>
     <col min="4" max="4" width="31.44140625" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" customWidth="1"/>
     <col min="6" max="6" width="38.21875" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" customWidth="1"/>
     <col min="8" max="8" width="33.109375" customWidth="1"/>
     <col min="9" max="9" width="16.88671875" customWidth="1"/>
     <col min="10" max="11" width="9.88671875" customWidth="1"/>
@@ -1632,101 +1770,101 @@
     <col min="13" max="13" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="25" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:13" s="24" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="23" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="25" customFormat="1" ht="171.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:13" s="24" customFormat="1" ht="171.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
     </row>
     <row r="3" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="27" t="s">
         <v>105</v>
       </c>
       <c r="I3" s="22"/>
@@ -1736,28 +1874,28 @@
       <c r="M3" s="22"/>
     </row>
     <row r="4" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>89</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="27" t="s">
         <v>99</v>
       </c>
       <c r="I4" s="22"/>
@@ -1767,28 +1905,28 @@
       <c r="M4" s="22"/>
     </row>
     <row r="5" spans="1:13" ht="218.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>89</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="27" t="s">
         <v>102</v>
       </c>
       <c r="I5" s="22"/>
@@ -1798,28 +1936,28 @@
       <c r="M5" s="22"/>
     </row>
     <row r="6" spans="1:13" ht="218.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>89</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="27" t="s">
         <v>111</v>
       </c>
       <c r="I6" s="22"/>
@@ -1828,30 +1966,30 @@
       <c r="L6" s="22"/>
       <c r="M6" s="22"/>
     </row>
-    <row r="7" spans="1:13" ht="202.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>89</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="27" t="s">
         <v>114</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>115</v>
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
@@ -1860,29 +1998,29 @@
       <c r="M7" s="22"/>
     </row>
     <row r="8" spans="1:13" ht="156" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="19" t="s">
+      <c r="E8" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="G8" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="28" t="s">
+      <c r="H8" s="27" t="s">
         <v>119</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>121</v>
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
@@ -1890,30 +2028,30 @@
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
     </row>
-    <row r="9" spans="1:13" ht="156" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+    <row r="9" spans="1:13" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="G9" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="19" t="s">
+      <c r="H9" s="27" t="s">
         <v>123</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>126</v>
       </c>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
@@ -1921,30 +2059,30 @@
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
     </row>
-    <row r="10" spans="1:13" ht="218.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="B10" s="30" t="s">
+    <row r="10" spans="1:13" ht="202.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>89</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="E10" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>130</v>
+      <c r="F10" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>126</v>
       </c>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
@@ -1953,29 +2091,29 @@
       <c r="M10" s="22"/>
     </row>
     <row r="11" spans="1:13" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="B11" s="30" t="s">
+      <c r="A11" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>89</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="G11" s="34" t="s">
+      <c r="F11" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="H11" s="28" t="s">
-        <v>133</v>
+      <c r="H11" s="27" t="s">
+        <v>129</v>
       </c>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
@@ -1984,29 +2122,29 @@
       <c r="M11" s="22"/>
     </row>
     <row r="12" spans="1:13" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="B12" s="30" t="s">
+      <c r="A12" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>89</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E12" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="G12" s="34" t="s">
+      <c r="F12" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="28" t="s">
-        <v>136</v>
+      <c r="H12" s="27" t="s">
+        <v>132</v>
       </c>
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
@@ -2015,29 +2153,29 @@
       <c r="M12" s="22"/>
     </row>
     <row r="13" spans="1:13" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" s="30" t="s">
+      <c r="A13" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>89</v>
       </c>
       <c r="D13" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="27" t="s">
         <v>139</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>143</v>
       </c>
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
@@ -2045,120 +2183,248 @@
       <c r="L13" s="22"/>
       <c r="M13" s="22"/>
     </row>
-    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22"/>
+    <row r="14" spans="1:13" ht="171.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>143</v>
+      </c>
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
     </row>
-    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
+    <row r="15" spans="1:13" ht="78" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>150</v>
+      </c>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
       <c r="M15" s="22"/>
     </row>
-    <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22"/>
+    <row r="16" spans="1:13" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>149</v>
+      </c>
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
       <c r="M16" s="22"/>
     </row>
-    <row r="17" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22"/>
+    <row r="17" spans="1:13" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>153</v>
+      </c>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
       <c r="M17" s="22"/>
     </row>
-    <row r="18" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22"/>
+    <row r="18" spans="1:13" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>156</v>
+      </c>
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
       <c r="M18" s="22"/>
     </row>
-    <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="22"/>
+    <row r="19" spans="1:13" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>162</v>
+      </c>
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
       <c r="M19" s="22"/>
     </row>
-    <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22"/>
+    <row r="20" spans="1:13" ht="156" x14ac:dyDescent="0.3">
+      <c r="A20" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>172</v>
+      </c>
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
     </row>
-    <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="22"/>
+    <row r="21" spans="1:13" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>176</v>
+      </c>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
@@ -2166,169 +2432,169 @@
       <c r="M21" s="22"/>
     </row>
     <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
     </row>
     <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
     </row>
     <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
     </row>
     <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
     </row>
     <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
     </row>
     <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
     </row>
     <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
     </row>
     <row r="29" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
     </row>
     <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
     </row>
     <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
     </row>
     <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
